--- a/utils/db-bonds-data.xlsx
+++ b/utils/db-bonds-data.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Media_PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DB\arrakis_v3\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A8158B-63F7-4986-B1B3-F1A9217B90BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5925A05D-8A22-4066-8ABE-884AE908124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2475" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bonds" sheetId="3" r:id="rId1"/>
     <sheet name="Trades" sheetId="2" r:id="rId2"/>
-    <sheet name="Trades Counter Parties" sheetId="4" r:id="rId3"/>
-    <sheet name="Bonds Counter Parties" sheetId="5" r:id="rId4"/>
+    <sheet name="Books" sheetId="6" r:id="rId3"/>
+    <sheet name="Users" sheetId="7" r:id="rId4"/>
+    <sheet name="Users Books" sheetId="8" r:id="rId5"/>
+    <sheet name="Trades Counter Parties" sheetId="4" r:id="rId6"/>
+    <sheet name="Bonds Counter Parties" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bonds!$A$1:$J$29</definedName>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
   <si>
     <t>trade_type</t>
   </si>
@@ -257,13 +260,34 @@
   </si>
   <si>
     <t>issuer_id</t>
+  </si>
+  <si>
+    <t>trading_book_3</t>
+  </si>
+  <si>
+    <t>trading_book_4</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>example@yahoo.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user email</t>
+  </si>
+  <si>
+    <t>book id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +422,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -714,7 +746,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -757,15 +789,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -799,6 +833,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1121,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +2024,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2940,6 +2975,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E584CE4B-38CF-4D67-A521-E6C1A9B4FC2A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E59187-844D-4D6E-92ED-C2235BFE328B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C4767F34-2420-4B48-B774-F82AB77DC3FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFD0A94-6134-4FC6-B3EF-CF3574CC644C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A35F493-FE04-45FA-8733-D8C678971C22}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8281B050-0772-4C7E-B396-07143F2B8AA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B6539-D5A2-42D1-A24A-A879A9B57698}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3054,11 +3241,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EBF2C-B60E-45F3-B641-72B1A1E58AE6}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
